--- a/P4_01_analyse.xlsx
+++ b/P4_01_analyse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Desktop\Formation developeur web\Projet 4\Starting+website\final\P4_Duret_ChunCheung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Desktop\Formation developeur web\Projet 4\Starting+website\final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE070AD-A9DF-4372-B576-8358BE9DF341}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D79308D-E47D-4379-A7BA-ACC3911D4F1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1815" yWindow="-16320" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-1500" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="135">
   <si>
     <t>Catégorie</t>
   </si>
@@ -46,12 +46,6 @@
     <t>keywords</t>
   </si>
   <si>
-    <t xml:space="preserve">lien des social </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lien extérieur</t>
-  </si>
-  <si>
     <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941044-inspectez-manuellement-le-contenu</t>
   </si>
   <si>
@@ -67,129 +61,39 @@
     <t>Entreprise web design Lyon | La chouette agence</t>
   </si>
   <si>
-    <t>javascript bloc la page</t>
-  </si>
-  <si>
     <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site</t>
   </si>
   <si>
-    <t>si l'ordre d'exécution n'a pas d'importance ajouter "async",si l'ordre est importance ajouter "defer"dans les balises script.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ajouter "l'en-tête Cache-Control" définit l'âge maximum d'une ressource (en secondes),  la durée maximum pendant laquelle cette ressource est valable ; et "l'en-tête Expires" est utilisée pour spécifier un moment précis (une date) où la ressource n'est plus valide. </t>
   </si>
   <si>
     <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055236-parametrez-le-cache-navigateur</t>
   </si>
   <si>
-    <t>reoganiser navbar</t>
-  </si>
-  <si>
-    <t>color de text et background</t>
-  </si>
-  <si>
-    <t xml:space="preserve">css,code erreurs </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajouter lable for chaque element, </t>
-  </si>
-  <si>
-    <t>ajouter les tag lable pour chaque elements, approfondir le color de outline de input, pour les faire plus ressortir.</t>
-  </si>
-  <si>
     <t>https://developers.google.com/search/blog/2009/09/google-does-not-use-keywords-meta-tag?hl=en</t>
   </si>
   <si>
-    <t>Google utiliser plus meta keywords</t>
-  </si>
-  <si>
-    <t>description manquer</t>
-  </si>
-  <si>
     <t>Les titres de page sont essentiels pour donner aux internautes une idée rapide du contenu et de la pertinence d'un résultat de recherche. Il s'agit bien souvent de l'information principale sur laquelle se base l'internaute pour décider de cliquer ou non sur un résultat. Il est donc important que les titres de vos pages Web soient de bonne qualité.</t>
   </si>
   <si>
     <t>https://developers.google.com/search/docs/advanced/appearance/good-titles-snippets</t>
   </si>
   <si>
-    <t>Titre manquer</t>
-  </si>
-  <si>
     <t>https://www.digitalcorsaire.com/pourquoi-la-balise-title/</t>
   </si>
   <si>
-    <t xml:space="preserve">ils bloqueront l’affichage de la page jusqu’à ce qu’ils soient complètement chargés. </t>
-  </si>
-  <si>
     <t>https://www.lafabriquedunet.fr/seo/articles/referencement-seo-pratiques-dangereuses-a-eviter/</t>
   </si>
   <si>
-    <t>la vitesse de chargement des pages du site</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ligne 851, 857 "max/min-device-width"sont dé conseillée par w3c.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ligne :876, 877 ,887,888.constant(safe-area-inset-left.right) n'est pas une valeur de padding,   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">file "et-line.css"ligne 110 "speak: none"n'est pas une valeur </t>
-  </si>
-  <si>
-    <t>eurreurs des balises link et script</t>
-  </si>
-  <si>
-    <t>en page2 :link  bootrap.min, et-line.min, script:jquery-2.1.0.min,  bootsrap.min, blics.min, sont pas correct, donc ca provequé la page s'adapté pas la page desktop</t>
-  </si>
-  <si>
-    <t>ajouter balise semantique</t>
-  </si>
-  <si>
-    <t>ajouter balise header section footer..</t>
-  </si>
-  <si>
-    <t xml:space="preserve">images  alt </t>
-  </si>
-  <si>
-    <t>cette page situé à Lyon n'est pas à paris , change la région paris à lyon</t>
-  </si>
-  <si>
-    <t>ajouter h2 en replacant le image titre.</t>
-  </si>
-  <si>
-    <t>texts cachés dans la page</t>
-  </si>
-  <si>
     <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578347-trouvez-vos-premiers-backlinks</t>
   </si>
   <si>
     <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578346-augmentez-lautorite-de-votre-site</t>
   </si>
   <si>
-    <t>la qualité du lien ne pas bonne, pages en 404</t>
-  </si>
-  <si>
-    <t>changer page2 à contact  dans le navbar, ajouter aria-lable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">changer background du text </t>
-  </si>
-  <si>
     <t>https://www.w3.org/TR/WCAG21/#contrast-minimum</t>
   </si>
   <si>
-    <t>manquer aria-lable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajouteraria-lable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ajouter aria lable pour tout le botton </t>
-  </si>
-  <si>
-    <t>Les ARIA lable définissent les noms accessibles à lire par les lecteurs d'écran pour les éléments d'interface. Ils peuvent être utilisés lorsque les associations HTML</t>
-  </si>
-  <si>
     <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940999-utilisez-des-outils-de-test-automatises</t>
   </si>
   <si>
@@ -199,12 +103,6 @@
     <t>recommandation</t>
   </si>
   <si>
-    <t>l'en-tete cache-control</t>
-  </si>
-  <si>
-    <t>eurreurs des balises form html</t>
-  </si>
-  <si>
     <t>Supprimer meta keywords</t>
   </si>
   <si>
@@ -226,15 +124,6 @@
     <t>La balise « titre » est une métadonnée qui décrit en premier lieu le contenu d’une page web, Le titre en SEO sera transporté sur les résultats des moteurs , procure une information précieuse aux internautes pour les inciter à cliquer sur votre page web.</t>
   </si>
   <si>
-    <t>les images dans la page sont trop grandes, et les source de la page prennent beaucoup de place.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image alt description formaton pas correct </t>
-  </si>
-  <si>
-    <t>contraste de texte avec des backgrounds, en particulier les utilisateurs malvoyants</t>
-  </si>
-  <si>
     <t>supprimer les</t>
   </si>
   <si>
@@ -247,43 +136,7 @@
     <t>supprimer les"min"</t>
   </si>
   <si>
-    <t>reoganiser les liens</t>
-  </si>
-  <si>
-    <t>supprimer les liens</t>
-  </si>
-  <si>
-    <t>erreur tag langue</t>
-  </si>
-  <si>
-    <t>il faut changer "Default" à "fr", parsque ce site pricipal langueue c'est francaise ,defini tag langue="fr" peut amiliorer accesiblité de lecture d'écran</t>
-  </si>
-  <si>
-    <t>reorganiser les heading</t>
-  </si>
-  <si>
     <t>changer les images à texte</t>
-  </si>
-  <si>
-    <t>reorganiser les boutons social</t>
-  </si>
-  <si>
-    <t>changer la region</t>
-  </si>
-  <si>
-    <t>changer les couleurs du texte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agrandir les margin entre les boutons social,dispplay :flex; margin:20px 10px; justify-content:space-around; </t>
-  </si>
-  <si>
-    <t>recrit les texte pour replacer les images.</t>
-  </si>
-  <si>
-    <t>enlever les liens vides, fournir un lien fonctionnel ou target le lien.</t>
-  </si>
-  <si>
-    <t>supprimer les liens "index.html" , créer des liens corrects, ajouter les lable aria</t>
   </si>
   <si>
     <t>Depuis 2009, Google ne peut plus utilser "keywords"meta tag pour web search ranking</t>
@@ -296,141 +149,285 @@
     <t>Ajouter un titre avec des mots clés ne dépassant pas 65 caractéres "Entreprise web design Lyon-La chouette agence"</t>
   </si>
   <si>
-    <t>il faut supprimer le texte qui se cache dans la page."&lt;div class="keywords" style="color: rgb(204, 204, 204); font-size: 1px;"&gt;
+    <t>"success-msg "d'attribut non autorisé sur le formulaire d'élement à ce stade.</t>
+  </si>
+  <si>
+    <t>Le lien n'est pas correct, Donnera aux utilisateurs une mauvaise expérience.</t>
+  </si>
+  <si>
+    <t>Lorsqu'il n'y a pas assez d'espace entre les éléments, il est facile d'appuyer sur le mauvais bouton, ce qui apportera une mauvaise expérience utilisateur à l'utilisateur</t>
+  </si>
+  <si>
+    <t>Si l'en-tete cache n'est pas défini, cela peut ralentir à  la vitesse d'ouverture de la page Web</t>
+  </si>
+  <si>
+    <t>p{font-size:11px; changer `a font-size:16px</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941263-creez-des-designs-visuels-accessibles</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941560-annotez-vos-maquettes-a-laide-dinformations-daccessibilite</t>
+  </si>
+  <si>
+    <t>entre botton socia,il ya pas assz de margin</t>
+  </si>
+  <si>
+    <t>Afin de faciliter la navigation dans la page pour les utilisateurs de technologies d'assistance, la page doit  définir les principales zones de la page à l'aide d'éléments HTML structurels,  les utilisateurs peuvent comprendre rapidement l'organisation de la page et les zones disponibles. Ils peuvent également se déplacer dans le contenu de manière rapide et efficace.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Textes cachés dans la page , content duplicate,  au risque que Google considère la manœuvre comme une tentative malhonnête pour essayer d’influencer votre classement dans les moteurs de recherche. </t>
+  </si>
+  <si>
+    <t>Problème de structure de nav bar. Les URL pages2 doit être compréhensibles .</t>
+  </si>
+  <si>
+    <t>https://web.dev/tap-targets/?utm_source=lighthouse&amp;utm_medium=lr</t>
+  </si>
+  <si>
+    <t>supprimer les liens ,trouver des liens de bonne qualité ;Un lien est considéré de qualité s'il : Provient d'un site connu ou de qualité; Se touve dans contenu cohérent par rapport à votre domanine métier; Vous améne un vrai trafic,</t>
+  </si>
+  <si>
+    <t>seo(classiques)</t>
+  </si>
+  <si>
+    <t>seo(structuration HTML)</t>
+  </si>
+  <si>
+    <t>seo(la vitesse de la page)</t>
+  </si>
+  <si>
+    <t>seo(les eurreurs code source)</t>
+  </si>
+  <si>
+    <t>seo(l'élément techniques)</t>
+  </si>
+  <si>
+    <t>L’objectif d’un Sitemap est indubitablement de faciliter l’indexation de l’ensemble des pages d’un site web.</t>
+  </si>
+  <si>
+    <t>https://www.seo.fr/definition/sitemap</t>
+  </si>
+  <si>
+    <t>seo(láutorité de la page)</t>
+  </si>
+  <si>
+    <t>Google n' utilise plus la balise meta keywords</t>
+  </si>
+  <si>
+    <t>Si un formulaire n'a pas de meta label, la fonction ou le but de ce formulaire ne peut pas être présenté aux utilisateurs de lecteur d'écran. Les labels de formulaire fournissent également des descriptions visibles et des cibles cliquables plus larges pour les formulaire.</t>
+  </si>
+  <si>
+    <t>Les  lien extérieur dans la page web</t>
+  </si>
+  <si>
+    <t>Dans le head de html :link  bootrap.min, et-line.min, script:jquery-2.1.0.min,  bootsrap.min, blics.min, sont pas correct, donc ca provequé la page s'adapté pas la page desktop</t>
+  </si>
+  <si>
+    <t>Eurreurs des balises link dans le head de html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code soure CSS erreurs </t>
+  </si>
+  <si>
+    <t>La balise meta description est vide</t>
+  </si>
+  <si>
+    <t>La balise title est vide</t>
+  </si>
+  <si>
+    <t>Le javascript bloque la page</t>
+  </si>
+  <si>
+    <t>La vitesse de chargement des pages du site</t>
+  </si>
+  <si>
+    <t>Les images remplacent les textes</t>
+  </si>
+  <si>
+    <t>L'en-tete cache-control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurreurs html dans la balise form </t>
+  </si>
+  <si>
+    <t>Texts cachés dans la page</t>
+  </si>
+  <si>
+    <t>Manquer un sitemap dans le site web</t>
+  </si>
+  <si>
+    <t>Structure ne correcte pas du contenu</t>
+  </si>
+  <si>
+    <t>Navigation n'est pas claire</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Html élements structuels </t>
+  </si>
+  <si>
+    <t>Erreur de meta lang</t>
+  </si>
+  <si>
+    <t>Dans la page contact le formulaire manquent meta label, les input outline mal voir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images  alt description ne sont pas correct </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liens des social ne sont pas correct </t>
+  </si>
+  <si>
+    <t>Manquer aria-label pour les bottons</t>
+  </si>
+  <si>
+    <t>Color de text et background contraste sont trop bas</t>
+  </si>
+  <si>
+    <t>Les paragraphe sont trop petit</t>
+  </si>
+  <si>
+    <t>Les textes sont trop petit pour les utilisateur de lire</t>
+  </si>
+  <si>
+    <t>Les ARIA labels définissent les noms accessibles à lire par les lecteurs d'écran pour les éléments d'interface. Ils peuvent être utilisés lorsque les associations HTML</t>
+  </si>
+  <si>
+    <t>Reoganiser les liens</t>
+  </si>
+  <si>
+    <t>Reorganiser les boutons social</t>
+  </si>
+  <si>
+    <t>Supprimer les liens</t>
+  </si>
+  <si>
+    <t>Ajouter un sitemap</t>
+  </si>
+  <si>
+    <t>Reorganiser les heading</t>
+  </si>
+  <si>
+    <t>Reoganiser navbar</t>
+  </si>
+  <si>
+    <t>Ajouter balise semantique</t>
+  </si>
+  <si>
+    <t>Définir meta lang='fr'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter label for chaque element, </t>
+  </si>
+  <si>
+    <t>Changer la region</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter aria-label </t>
+  </si>
+  <si>
+    <t>Grandir les paragrahes</t>
+  </si>
+  <si>
+    <t>Contraste de texte avec des backgrounds, en particulier les utilisateurs malvoyants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les image alt description information ne sont pas correct ,si les images afficher pas , ou avce lecteur d'écrant, il donnera faut information aux utilisateurs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">La principle langue de cette page c'est francaise, il faut définir la langue en 'fr', pour n'est pas confus le lecteur d'écran. </t>
+  </si>
+  <si>
+    <t>Il est manquer h2,les utilisateurs peuvent être confus ou avoir des difficultés à naviguer lorsque les heading sont mal organisés. les headings fournissent une structure de document et facilitent la navigation au clavier par les utilisateaurs de technologies d'assistance,</t>
+  </si>
+  <si>
+    <t>La qualité du lien ne pas bonne, pages en 404, ils  donneront aux utilisateur une mauvaise expérince.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ligne 851, 857 "max/min-device-width"sont dé conseillée par w3c.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File "et-line.css"ligne 110 "speak: none"n'est pas une valeur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ligne :876, 877 ,887,888.constant(safe-area-inset-left.right) n'est pas une valeur de padding,   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texte à images ne peut pas donner des informations corrects à des utilisateus. Et plus  d'images, plus cela ralentit le vitesse de chargement de la page </t>
+  </si>
+  <si>
+    <t>Les images dans la page sont trop grandes, et les source de la page prennent beaucoup de place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les javascripts  bloqueront l’affichage de la page jusqu’à ce qu’ils soient complètement chargés. </t>
+  </si>
+  <si>
+    <t>Si l'ordre d'exécution n'a pas d'importance ajouter "async",si l'ordre est importance ajouter "defer"dans les balises script.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Compresser les html, css, javascript, changer les images BMP et PNG à JPG compresser les.</t>
+  </si>
+  <si>
+    <t>Recrit les texte pour replacer les images.</t>
+  </si>
+  <si>
+    <t>Supprimer les constant(safe-area inset-lefte/right)</t>
+  </si>
+  <si>
+    <t>Supprimer device</t>
+  </si>
+  <si>
+    <t>Supprimer "speak:none"</t>
+  </si>
+  <si>
+    <t>Supprimer les"min"</t>
+  </si>
+  <si>
+    <t>Supprimer "succes-msg"et "fail-msg"</t>
+  </si>
+  <si>
+    <t>Il faut supprimer le texte qui se cache dans la page."&lt;div class="keywords" style="color: rgb(204, 204, 204); font-size: 1px;"&gt;
 Agence web à paris, stratégie web, web design, illustrations, design de site web, site web, web, internet, site internet, site
 &lt;/div&gt;"</t>
   </si>
   <si>
-    <t xml:space="preserve"> compresser les html, css, javascript, changer les images BMP et PNG à JPG compresser les.</t>
-  </si>
-  <si>
-    <t>"success-msg "d'attribut non autorisé sur le formulaire d'élement à ce stade.</t>
-  </si>
-  <si>
-    <t>supprimer "succes-msg"et "fail-msg"</t>
-  </si>
-  <si>
-    <t>Le lien n'est pas correct, Donnera aux utilisateurs une mauvaise expérience.</t>
-  </si>
-  <si>
-    <t>Lorsqu'il n'y a pas assez d'espace entre les éléments, il est facile d'appuyer sur le mauvais bouton, ce qui apportera une mauvaise expérience utilisateur à l'utilisateur</t>
-  </si>
-  <si>
-    <t>Si l'en-tete cache n'est pas défini, cela peut ralentir à  la vitesse d'ouverture de la page Web</t>
-  </si>
-  <si>
-    <t>les paragraphe sont trop petit</t>
-  </si>
-  <si>
-    <t>Le texte est trop petit pour les utilisateur de lire</t>
-  </si>
-  <si>
-    <t>grandir les paragrahes</t>
-  </si>
-  <si>
-    <t>p{font-size:11px; changer `a font-size:16px</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941263-creez-des-designs-visuels-accessibles</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941560-annotez-vos-maquettes-a-laide-dinformations-daccessibilite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">texte à images ne peut pas donner des informations corrects à des utilisateus. Et plus  d'images, plus cela ralentit le vitesse de chargement de la page </t>
-  </si>
-  <si>
-    <t>entre botton socia,il ya pas assz de margin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> html élements structuels </t>
-  </si>
-  <si>
-    <t>Afin de faciliter la navigation dans la page pour les utilisateurs de technologies d'assistance, la page doit  définir les principales zones de la page à l'aide d'éléments HTML structurels,  les utilisateurs peuvent comprendre rapidement l'organisation de la page et les zones disponibles. Ils peuvent également se déplacer dans le contenu de manière rapide et efficace.</t>
-  </si>
-  <si>
-    <t>structure ne correcte pas contenu</t>
-  </si>
-  <si>
-    <t>il est manquer h2,les utilisateurs peuvent être confus ou avoir des difficultés à naviguer lorsque les heading sont mal organisés. les headings fournissent une structure de document et facilitent la navigation au clavier par les utilisateaurs de technologies d'assistance,</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Textes cachés dans la page , content duplicate,  au risque que Google considère la manœuvre comme une tentative malhonnête pour essayer d’influencer votre classement dans les moteurs de recherche. </t>
-  </si>
-  <si>
-    <t>Si un formulaire n'a pas de tag lable, la fonction ou le but de ce formulaire ne peut pas être présenté aux utilisateurs de lecteur d'écran. Les lables de formulaire fournissent également des descriptions visibles et des cibles cliquables plus larges pour les formulaire.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">changer lang='Default'to lang=" fr' </t>
-  </si>
-  <si>
-    <t xml:space="preserve">la principle langue de cette page c'est francaise, il faut définir la langue en 'fr', pour n'est pas confus le lecteur d'écran. </t>
-  </si>
-  <si>
-    <t>navigation</t>
-  </si>
-  <si>
-    <t>Problème de structure de nav bar. Les URL pages2 doit être compréhensibles .</t>
-  </si>
-  <si>
-    <t>https://web.dev/tap-targets/?utm_source=lighthouse&amp;utm_medium=lr</t>
-  </si>
-  <si>
-    <t>supprimer les liens ,trouver des liens de bonne qualité ;Un lien est considéré de qualité s'il : Provient d'un site connu ou de qualité; Se touve dans contenu cohérent par rapport à votre domanine métier; Vous améne un vrai trafic,</t>
-  </si>
-  <si>
-    <t>les liens dans footer</t>
-  </si>
-  <si>
-    <t>les lien dans footer pleine d'autres liens, Google sait maintenant reconnaître les liens dans les footers et dans les sidebars qui sont disponibles sur toutes les pages du site. Ces liens perdent de plus en plus d'importance</t>
-  </si>
-  <si>
-    <t>supprimer "speak:none"</t>
-  </si>
-  <si>
-    <t>supprimer les constant(safe-area inset-lefte/right)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text à l'images  </t>
-  </si>
-  <si>
-    <t>seo(classiques)</t>
-  </si>
-  <si>
-    <t>seo(structuration HTML)</t>
-  </si>
-  <si>
-    <t>seo(la vitesse de la page)</t>
-  </si>
-  <si>
-    <t>seo(les eurreurs code source)</t>
-  </si>
-  <si>
-    <t>seo(l'élément techniques)</t>
-  </si>
-  <si>
-    <t>manquer un sitemap</t>
-  </si>
-  <si>
-    <t>ajouter un sitemap</t>
-  </si>
-  <si>
-    <t>ajouter un sitemap xml.</t>
-  </si>
-  <si>
-    <t>L’objectif d’un Sitemap est indubitablement de faciliter l’indexation de l’ensemble des pages d’un site web.</t>
-  </si>
-  <si>
-    <t>https://www.seo.fr/definition/sitemap</t>
-  </si>
-  <si>
-    <t>seo(láutorité de la page)</t>
-  </si>
-  <si>
-    <t>page2 formulaire manquer tag lable,input out line mal voir</t>
+    <t>Supprimer les liens "index.html" , créer des liens corrects, ajouter les lable aria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agrandir les margin entre les boutons social,dispplay :flex; margin:20px 10px; justify-content:space-around; </t>
+  </si>
+  <si>
+    <t>Ajouter un sitemap xml.</t>
+  </si>
+  <si>
+    <t>Ajouter h2 en replacant le image titre.</t>
+  </si>
+  <si>
+    <t>Changer page2 à contact  dans le navbar, ajouter aria-lable</t>
+  </si>
+  <si>
+    <t>Ajouter balise header section footer..</t>
+  </si>
+  <si>
+    <t>Il faut changer "Default" à "fr", parsque ce site pricipal langueue c'est francaise ,defini tag langue="fr" peut amiliorer accesiblité de lecture d'écran</t>
+  </si>
+  <si>
+    <t>Ajouter les tag lable pour chaque elements, approfondir le color de outline de input, pour les faire plus ressortir.</t>
+  </si>
+  <si>
+    <t>Cette page situé à Lyon n'est pas à paris , change la région paris à lyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajouter aria label pour tout le botton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer background du text </t>
+  </si>
+  <si>
+    <t>Changer les couleurs du background</t>
   </si>
 </sst>
 </file>
@@ -717,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -833,9 +830,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1011,67 +1005,34 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1101,40 +1062,67 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1359,18 +1347,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA203"/>
+  <dimension ref="A1:AA202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.109375" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.21875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="47" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.33203125" style="24" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" style="26" customWidth="1"/>
     <col min="6" max="6" width="63.6640625" style="22" customWidth="1"/>
@@ -1378,48 +1366,48 @@
     <col min="8" max="27" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="110" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
-        <v>58</v>
+    <row r="1" spans="1:27" s="109" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="110" t="s">
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="112" t="s">
+      <c r="C1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="112" t="s">
+      <c r="D1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="112" t="s">
+      <c r="F1" s="111" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
-      <c r="M1" s="109"/>
-      <c r="N1" s="109"/>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="109"/>
-      <c r="T1" s="109"/>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109"/>
-      <c r="W1" s="109"/>
-      <c r="X1" s="109"/>
-      <c r="Y1" s="109"/>
-      <c r="Z1" s="109"/>
-      <c r="AA1" s="109"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="M1" s="108"/>
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
+      <c r="Z1" s="108"/>
+      <c r="AA1" s="108"/>
     </row>
     <row r="2" spans="1:27" ht="47.25" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
@@ -1430,26 +1418,26 @@
       </c>
     </row>
     <row r="3" spans="1:27" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="126">
+      <c r="A3" s="133">
         <v>1</v>
       </c>
-      <c r="B3" s="129" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" s="49" t="s">
+      <c r="B3" s="136" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -1467,22 +1455,22 @@
       <c r="U3" s="12"/>
     </row>
     <row r="4" spans="1:27" s="13" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="127"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="49" t="s">
-        <v>27</v>
+      <c r="A4" s="134"/>
+      <c r="B4" s="137"/>
+      <c r="C4" s="48" t="s">
+        <v>70</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>62</v>
-      </c>
       <c r="F4" s="20" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -1500,22 +1488,22 @@
       <c r="U4" s="12"/>
     </row>
     <row r="5" spans="1:27" s="13" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A5" s="128"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="49" t="s">
-        <v>30</v>
+      <c r="A5" s="135"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="48" t="s">
+        <v>71</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -1533,26 +1521,26 @@
       <c r="U5" s="12"/>
     </row>
     <row r="6" spans="1:27" s="38" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="133">
+      <c r="A6" s="140">
         <v>2</v>
       </c>
-      <c r="B6" s="131" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="51" t="s">
-        <v>15</v>
+      <c r="B6" s="138" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>72</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>17</v>
+        <v>114</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="37"/>
@@ -1570,22 +1558,22 @@
       <c r="U6" s="37"/>
     </row>
     <row r="7" spans="1:27" s="38" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="133"/>
-      <c r="B7" s="132"/>
-      <c r="C7" s="51" t="s">
-        <v>34</v>
+      <c r="A7" s="140"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="50" t="s">
+        <v>73</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="37"/>
@@ -1603,19 +1591,19 @@
       <c r="U7" s="37"/>
     </row>
     <row r="8" spans="1:27" s="38" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="133"/>
-      <c r="B8" s="132"/>
-      <c r="C8" s="146" t="s">
-        <v>123</v>
+      <c r="A8" s="140"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="112" t="s">
+        <v>74</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="G8" s="39"/>
       <c r="H8" s="37"/>
@@ -1634,22 +1622,22 @@
       <c r="U8" s="37"/>
     </row>
     <row r="9" spans="1:27" s="38" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="133"/>
-      <c r="B9" s="132"/>
-      <c r="C9" s="51" t="s">
-        <v>59</v>
+      <c r="A9" s="140"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="50" t="s">
+        <v>75</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H9" s="37"/>
       <c r="I9" s="37"/>
@@ -1667,28 +1655,28 @@
       <c r="U9" s="37"/>
     </row>
     <row r="10" spans="1:27" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="119">
+      <c r="A10" s="141">
         <v>3</v>
       </c>
-      <c r="B10" s="143" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="134" t="s">
-        <v>22</v>
+      <c r="B10" s="131" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="122" t="s">
+        <v>69</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="137" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="140"/>
+        <v>117</v>
+      </c>
+      <c r="G10" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="128"/>
       <c r="I10" s="42"/>
       <c r="J10" s="42"/>
       <c r="K10" s="42"/>
@@ -1704,20 +1692,20 @@
       <c r="U10" s="42"/>
     </row>
     <row r="11" spans="1:27" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="119"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="135"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="132"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="17" t="s">
-        <v>72</v>
-      </c>
       <c r="F11" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="138"/>
-      <c r="H11" s="141"/>
+        <v>118</v>
+      </c>
+      <c r="G11" s="126"/>
+      <c r="H11" s="129"/>
       <c r="I11" s="42"/>
       <c r="J11" s="42"/>
       <c r="K11" s="42"/>
@@ -1733,20 +1721,20 @@
       <c r="U11" s="42"/>
     </row>
     <row r="12" spans="1:27" s="43" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="119"/>
-      <c r="B12" s="144"/>
-      <c r="C12" s="136"/>
+      <c r="A12" s="141"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="124"/>
       <c r="D12" s="40" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="G12" s="139"/>
-      <c r="H12" s="142"/>
+        <v>119</v>
+      </c>
+      <c r="G12" s="127"/>
+      <c r="H12" s="130"/>
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
       <c r="K12" s="42"/>
@@ -1762,19 +1750,19 @@
       <c r="U12" s="42"/>
     </row>
     <row r="13" spans="1:27" s="43" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="119"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="52" t="s">
-        <v>38</v>
+      <c r="A13" s="141"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="51" t="s">
+        <v>68</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="42"/>
@@ -1793,57 +1781,57 @@
       <c r="U13" s="42"/>
     </row>
     <row r="14" spans="1:27" s="43" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="119"/>
-      <c r="B14" s="144"/>
-      <c r="C14" s="53" t="s">
-        <v>60</v>
+      <c r="A14" s="141"/>
+      <c r="B14" s="132"/>
+      <c r="C14" s="52" t="s">
+        <v>76</v>
       </c>
       <c r="D14" s="44" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
-      <c r="L14" s="47"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
+        <v>34</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
     </row>
     <row r="15" spans="1:27" s="32" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="152">
+      <c r="A15" s="119">
         <v>4</v>
       </c>
-      <c r="B15" s="145" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>45</v>
+      <c r="B15" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>77</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="G15" s="30" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
@@ -1861,22 +1849,22 @@
       <c r="U15" s="31"/>
     </row>
     <row r="16" spans="1:27" s="32" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="153"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="150" t="s">
-        <v>8</v>
+      <c r="A16" s="120"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="113" t="s">
+        <v>85</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>95</v>
+        <v>43</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F16" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="151" t="s">
-        <v>46</v>
+        <v>123</v>
+      </c>
+      <c r="G16" s="114" t="s">
+        <v>21</v>
       </c>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
@@ -1894,22 +1882,22 @@
       <c r="U16" s="31"/>
     </row>
     <row r="17" spans="1:21" s="32" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="153"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="150" t="s">
-        <v>105</v>
+      <c r="A17" s="120"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="113" t="s">
+        <v>49</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>96</v>
+        <v>44</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" s="151" t="s">
-        <v>117</v>
+        <v>124</v>
+      </c>
+      <c r="G17" s="114" t="s">
+        <v>54</v>
       </c>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
@@ -1927,22 +1915,22 @@
       <c r="U17" s="31"/>
     </row>
     <row r="18" spans="1:21" s="32" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="147"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="150" t="s">
-        <v>9</v>
+      <c r="A18" s="121"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="113" t="s">
+        <v>66</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="155" t="s">
-        <v>47</v>
+        <v>55</v>
+      </c>
+      <c r="G18" s="115" t="s">
+        <v>22</v>
       </c>
       <c r="N18" s="31"/>
       <c r="O18" s="31"/>
@@ -1953,394 +1941,383 @@
       <c r="T18" s="31"/>
       <c r="U18" s="31"/>
     </row>
-    <row r="19" spans="1:21" s="32" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A19" s="148"/>
-      <c r="B19" s="149"/>
-      <c r="C19" s="150" t="s">
-        <v>119</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="29" t="s">
+    <row r="19" spans="1:21" s="61" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="62">
+        <v>5</v>
+      </c>
+      <c r="B19" s="116" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="60"/>
+      <c r="U19" s="60"/>
+    </row>
+    <row r="20" spans="1:21" s="78" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A20" s="71">
+        <v>6</v>
+      </c>
+      <c r="B20" s="146" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+    </row>
+    <row r="21" spans="1:21" s="78" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="79"/>
+      <c r="B21" s="147"/>
+      <c r="C21" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="75" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+    </row>
+    <row r="22" spans="1:21" s="69" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+      <c r="A22" s="142">
+        <v>7</v>
+      </c>
+      <c r="B22" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="M22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
+      <c r="Q22" s="68"/>
+      <c r="R22" s="68"/>
+      <c r="S22" s="68"/>
+      <c r="T22" s="68"/>
+      <c r="U22" s="68"/>
+    </row>
+    <row r="23" spans="1:21" s="69" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="143"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="64" t="s">
+        <v>105</v>
+      </c>
+      <c r="E23" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="68"/>
+      <c r="L23" s="68"/>
+      <c r="M23" s="68"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="68"/>
+      <c r="P23" s="68"/>
+      <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
+      <c r="S23" s="68"/>
+      <c r="T23" s="68"/>
+      <c r="U23" s="68"/>
+    </row>
+    <row r="24" spans="1:21" s="89" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A24" s="81">
+        <v>8</v>
+      </c>
+      <c r="B24" s="82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="86" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" s="87" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="88"/>
+      <c r="L24" s="88"/>
+      <c r="M24" s="88"/>
+      <c r="N24" s="88"/>
+      <c r="O24" s="88"/>
+      <c r="P24" s="88"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="88"/>
+      <c r="S24" s="88"/>
+      <c r="T24" s="88"/>
+      <c r="U24" s="88"/>
+    </row>
+    <row r="25" spans="1:21" s="96" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A25" s="150">
+        <v>9</v>
+      </c>
+      <c r="B25" s="148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="92" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="G25" s="94"/>
+      <c r="H25" s="95"/>
+      <c r="I25" s="95"/>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="95"/>
+      <c r="Q25" s="95"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+    </row>
+    <row r="26" spans="1:21" s="96" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A26" s="150"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="G19" s="151" t="s">
+      <c r="D26" s="91" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="G26" s="98" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="95"/>
+      <c r="Q26" s="95"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+    </row>
+    <row r="27" spans="1:21" s="105" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A27" s="151">
+        <v>10</v>
+      </c>
+      <c r="B27" s="152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="102" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="104"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="104"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="104"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="104"/>
+      <c r="O27" s="104"/>
+      <c r="P27" s="104"/>
+      <c r="Q27" s="104"/>
+      <c r="R27" s="104"/>
+      <c r="S27" s="104"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="104"/>
+    </row>
+    <row r="28" spans="1:21" s="105" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A28" s="151"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="100" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="107" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-    </row>
-    <row r="20" spans="1:21" s="62" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="63">
-        <v>5</v>
-      </c>
-      <c r="B20" s="156" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="E20" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="F20" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-    </row>
-    <row r="21" spans="1:21" s="79" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A21" s="72">
-        <v>6</v>
-      </c>
-      <c r="B21" s="124" t="s">
-        <v>125</v>
-      </c>
-      <c r="C21" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="76" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="77" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
-      <c r="N21" s="78"/>
-      <c r="O21" s="78"/>
-      <c r="P21" s="78"/>
-      <c r="Q21" s="78"/>
-      <c r="R21" s="78"/>
-      <c r="S21" s="78"/>
-      <c r="T21" s="78"/>
-      <c r="U21" s="78"/>
-    </row>
-    <row r="22" spans="1:21" s="79" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="80"/>
-      <c r="B22" s="125"/>
-      <c r="C22" s="73" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="74" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
-      <c r="P22" s="78"/>
-      <c r="Q22" s="78"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="78"/>
-      <c r="U22" s="78"/>
-    </row>
-    <row r="23" spans="1:21" s="70" customFormat="1" ht="90" x14ac:dyDescent="0.2">
-      <c r="A23" s="120">
-        <v>7</v>
-      </c>
-      <c r="B23" s="122" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="65" t="s">
-        <v>107</v>
-      </c>
-      <c r="E23" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="67" t="s">
-        <v>41</v>
-      </c>
-      <c r="G23" s="68" t="s">
-        <v>103</v>
-      </c>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="69"/>
-      <c r="O23" s="69"/>
-      <c r="P23" s="69"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="69"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69"/>
-    </row>
-    <row r="24" spans="1:21" s="70" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="121"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="65" t="s">
-        <v>114</v>
-      </c>
-      <c r="E24" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
-      <c r="P24" s="69"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="69"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-    </row>
-    <row r="25" spans="1:21" s="90" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A25" s="82">
-        <v>8</v>
-      </c>
-      <c r="B25" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="84" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" s="85" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="87" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="89"/>
-      <c r="N25" s="89"/>
-      <c r="O25" s="89"/>
-      <c r="P25" s="89"/>
-      <c r="Q25" s="89"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-    </row>
-    <row r="26" spans="1:21" s="97" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="115">
-        <v>9</v>
-      </c>
-      <c r="B26" s="113" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="91" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="92" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="94" t="s">
-        <v>43</v>
-      </c>
-      <c r="G26" s="95"/>
-      <c r="H26" s="96"/>
-      <c r="I26" s="96"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="96"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-      <c r="S26" s="96"/>
-      <c r="T26" s="96"/>
-      <c r="U26" s="96"/>
-    </row>
-    <row r="27" spans="1:21" s="97" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A27" s="115"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="92" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" s="93" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="98" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="99" t="s">
-        <v>56</v>
-      </c>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96"/>
-      <c r="S27" s="96"/>
-      <c r="T27" s="96"/>
-      <c r="U27" s="96"/>
-    </row>
-    <row r="28" spans="1:21" s="106" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="116">
-        <v>10</v>
-      </c>
-      <c r="B28" s="117" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="100" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="101" t="s">
-        <v>70</v>
-      </c>
-      <c r="E28" s="102" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="G28" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="H28" s="105"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="105"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="105"/>
-      <c r="O28" s="105"/>
-      <c r="P28" s="105"/>
-      <c r="Q28" s="105"/>
-      <c r="R28" s="105"/>
-      <c r="S28" s="105"/>
-      <c r="T28" s="105"/>
-      <c r="U28" s="105"/>
-    </row>
-    <row r="29" spans="1:21" s="106" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A29" s="116"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="101" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="102" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="107" t="s">
-        <v>101</v>
-      </c>
-      <c r="G29" s="108" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="105"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="105"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="105"/>
-      <c r="M29" s="105"/>
-      <c r="N29" s="105"/>
-      <c r="O29" s="105"/>
-      <c r="P29" s="105"/>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="105"/>
-      <c r="S29" s="105"/>
-      <c r="T29" s="105"/>
-      <c r="U29" s="105"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="104"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="104"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="104"/>
+      <c r="O28" s="104"/>
+      <c r="P28" s="104"/>
+      <c r="Q28" s="104"/>
+      <c r="R28" s="104"/>
+      <c r="S28" s="104"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="104"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B29" s="7"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
-      <c r="C30" s="54"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="15"/>
       <c r="E30" s="19"/>
       <c r="F30" s="21"/>
@@ -2362,7 +2339,7 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B31" s="7"/>
-      <c r="C31" s="54"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="15"/>
       <c r="E31" s="19"/>
       <c r="F31" s="21"/>
@@ -2384,7 +2361,7 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B32" s="7"/>
-      <c r="C32" s="54"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="15"/>
       <c r="E32" s="19"/>
       <c r="F32" s="21"/>
@@ -2406,7 +2383,7 @@
     </row>
     <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="7"/>
-      <c r="C33" s="54"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="15"/>
       <c r="E33" s="19"/>
       <c r="F33" s="21"/>
@@ -2428,7 +2405,7 @@
     </row>
     <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="7"/>
-      <c r="C34" s="54"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="15"/>
       <c r="E34" s="19"/>
       <c r="F34" s="21"/>
@@ -2450,7 +2427,7 @@
     </row>
     <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" s="7"/>
-      <c r="C35" s="54"/>
+      <c r="C35" s="53"/>
       <c r="D35" s="15"/>
       <c r="E35" s="19"/>
       <c r="F35" s="21"/>
@@ -2472,7 +2449,7 @@
     </row>
     <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" s="7"/>
-      <c r="C36" s="54"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="15"/>
       <c r="E36" s="19"/>
       <c r="F36" s="21"/>
@@ -2494,7 +2471,7 @@
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="7"/>
-      <c r="C37" s="54"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="15"/>
       <c r="E37" s="19"/>
       <c r="F37" s="21"/>
@@ -2516,7 +2493,7 @@
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="7"/>
-      <c r="C38" s="54"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="15"/>
       <c r="E38" s="19"/>
       <c r="F38" s="21"/>
@@ -2538,7 +2515,7 @@
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39" s="7"/>
-      <c r="C39" s="54"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="15"/>
       <c r="E39" s="19"/>
       <c r="F39" s="21"/>
@@ -2560,7 +2537,7 @@
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="7"/>
-      <c r="C40" s="54"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="15"/>
       <c r="E40" s="19"/>
       <c r="F40" s="21"/>
@@ -2582,7 +2559,7 @@
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
-      <c r="C41" s="54"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="15"/>
       <c r="E41" s="19"/>
       <c r="F41" s="21"/>
@@ -2604,7 +2581,7 @@
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="7"/>
-      <c r="C42" s="54"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="15"/>
       <c r="E42" s="19"/>
       <c r="F42" s="21"/>
@@ -2626,7 +2603,7 @@
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="7"/>
-      <c r="C43" s="54"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="15"/>
       <c r="E43" s="19"/>
       <c r="F43" s="21"/>
@@ -2649,7 +2626,7 @@
     <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44" s="7"/>
       <c r="C44" s="54"/>
-      <c r="D44" s="15"/>
+      <c r="D44" s="25"/>
       <c r="E44" s="19"/>
       <c r="F44" s="21"/>
       <c r="G44" s="5"/>
@@ -2670,7 +2647,7 @@
     </row>
     <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" s="7"/>
-      <c r="C45" s="55"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="25"/>
       <c r="E45" s="19"/>
       <c r="F45" s="21"/>
@@ -2692,7 +2669,7 @@
     </row>
     <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46" s="7"/>
-      <c r="C46" s="55"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="25"/>
       <c r="E46" s="19"/>
       <c r="F46" s="21"/>
@@ -2714,7 +2691,7 @@
     </row>
     <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" s="7"/>
-      <c r="C47" s="55"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="25"/>
       <c r="E47" s="19"/>
       <c r="F47" s="21"/>
@@ -2736,7 +2713,7 @@
     </row>
     <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48" s="7"/>
-      <c r="C48" s="55"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="25"/>
       <c r="E48" s="19"/>
       <c r="F48" s="21"/>
@@ -2758,7 +2735,7 @@
     </row>
     <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B49" s="7"/>
-      <c r="C49" s="55"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="25"/>
       <c r="E49" s="19"/>
       <c r="F49" s="21"/>
@@ -2780,7 +2757,7 @@
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B50" s="7"/>
-      <c r="C50" s="55"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="25"/>
       <c r="E50" s="19"/>
       <c r="F50" s="21"/>
@@ -2802,7 +2779,7 @@
     </row>
     <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B51" s="7"/>
-      <c r="C51" s="55"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="25"/>
       <c r="E51" s="19"/>
       <c r="F51" s="21"/>
@@ -2824,7 +2801,7 @@
     </row>
     <row r="52" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B52" s="7"/>
-      <c r="C52" s="55"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="25"/>
       <c r="E52" s="19"/>
       <c r="F52" s="21"/>
@@ -2846,7 +2823,7 @@
     </row>
     <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B53" s="7"/>
-      <c r="C53" s="55"/>
+      <c r="C53" s="54"/>
       <c r="D53" s="25"/>
       <c r="E53" s="19"/>
       <c r="F53" s="21"/>
@@ -2868,7 +2845,7 @@
     </row>
     <row r="54" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B54" s="7"/>
-      <c r="C54" s="55"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="25"/>
       <c r="E54" s="19"/>
       <c r="F54" s="21"/>
@@ -2890,7 +2867,7 @@
     </row>
     <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B55" s="7"/>
-      <c r="C55" s="55"/>
+      <c r="C55" s="54"/>
       <c r="D55" s="25"/>
       <c r="E55" s="19"/>
       <c r="F55" s="21"/>
@@ -2912,7 +2889,7 @@
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B56" s="7"/>
-      <c r="C56" s="55"/>
+      <c r="C56" s="54"/>
       <c r="D56" s="25"/>
       <c r="E56" s="19"/>
       <c r="F56" s="21"/>
@@ -2934,7 +2911,7 @@
     </row>
     <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B57" s="7"/>
-      <c r="C57" s="55"/>
+      <c r="C57" s="54"/>
       <c r="D57" s="25"/>
       <c r="E57" s="19"/>
       <c r="F57" s="21"/>
@@ -2956,7 +2933,7 @@
     </row>
     <row r="58" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B58" s="7"/>
-      <c r="C58" s="55"/>
+      <c r="C58" s="54"/>
       <c r="D58" s="25"/>
       <c r="E58" s="19"/>
       <c r="F58" s="21"/>
@@ -2978,7 +2955,7 @@
     </row>
     <row r="59" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B59" s="7"/>
-      <c r="C59" s="55"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="25"/>
       <c r="E59" s="19"/>
       <c r="F59" s="21"/>
@@ -3000,7 +2977,7 @@
     </row>
     <row r="60" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B60" s="7"/>
-      <c r="C60" s="55"/>
+      <c r="C60" s="54"/>
       <c r="D60" s="25"/>
       <c r="E60" s="19"/>
       <c r="F60" s="21"/>
@@ -3022,7 +2999,7 @@
     </row>
     <row r="61" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B61" s="7"/>
-      <c r="C61" s="55"/>
+      <c r="C61" s="54"/>
       <c r="D61" s="25"/>
       <c r="E61" s="19"/>
       <c r="F61" s="21"/>
@@ -3044,7 +3021,7 @@
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B62" s="7"/>
-      <c r="C62" s="55"/>
+      <c r="C62" s="54"/>
       <c r="D62" s="25"/>
       <c r="E62" s="19"/>
       <c r="F62" s="21"/>
@@ -3066,7 +3043,7 @@
     </row>
     <row r="63" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B63" s="7"/>
-      <c r="C63" s="55"/>
+      <c r="C63" s="54"/>
       <c r="D63" s="25"/>
       <c r="E63" s="19"/>
       <c r="F63" s="21"/>
@@ -3088,7 +3065,7 @@
     </row>
     <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B64" s="7"/>
-      <c r="C64" s="55"/>
+      <c r="C64" s="54"/>
       <c r="D64" s="25"/>
       <c r="E64" s="19"/>
       <c r="F64" s="21"/>
@@ -3110,7 +3087,7 @@
     </row>
     <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B65" s="7"/>
-      <c r="C65" s="55"/>
+      <c r="C65" s="54"/>
       <c r="D65" s="25"/>
       <c r="E65" s="19"/>
       <c r="F65" s="21"/>
@@ -3132,7 +3109,7 @@
     </row>
     <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B66" s="7"/>
-      <c r="C66" s="55"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="25"/>
       <c r="E66" s="19"/>
       <c r="F66" s="21"/>
@@ -3154,7 +3131,7 @@
     </row>
     <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B67" s="7"/>
-      <c r="C67" s="55"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="25"/>
       <c r="E67" s="19"/>
       <c r="F67" s="21"/>
@@ -3176,7 +3153,7 @@
     </row>
     <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B68" s="7"/>
-      <c r="C68" s="55"/>
+      <c r="C68" s="54"/>
       <c r="D68" s="25"/>
       <c r="E68" s="19"/>
       <c r="F68" s="21"/>
@@ -3198,7 +3175,7 @@
     </row>
     <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B69" s="7"/>
-      <c r="C69" s="55"/>
+      <c r="C69" s="54"/>
       <c r="D69" s="25"/>
       <c r="E69" s="19"/>
       <c r="F69" s="21"/>
@@ -3220,7 +3197,7 @@
     </row>
     <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B70" s="7"/>
-      <c r="C70" s="55"/>
+      <c r="C70" s="54"/>
       <c r="D70" s="25"/>
       <c r="E70" s="19"/>
       <c r="F70" s="21"/>
@@ -3242,7 +3219,7 @@
     </row>
     <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B71" s="7"/>
-      <c r="C71" s="55"/>
+      <c r="C71" s="54"/>
       <c r="D71" s="25"/>
       <c r="E71" s="19"/>
       <c r="F71" s="21"/>
@@ -3264,7 +3241,7 @@
     </row>
     <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B72" s="7"/>
-      <c r="C72" s="55"/>
+      <c r="C72" s="54"/>
       <c r="D72" s="25"/>
       <c r="E72" s="19"/>
       <c r="F72" s="21"/>
@@ -3286,7 +3263,7 @@
     </row>
     <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B73" s="7"/>
-      <c r="C73" s="55"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="25"/>
       <c r="E73" s="19"/>
       <c r="F73" s="21"/>
@@ -3308,7 +3285,7 @@
     </row>
     <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B74" s="7"/>
-      <c r="C74" s="55"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="25"/>
       <c r="E74" s="19"/>
       <c r="F74" s="21"/>
@@ -3330,7 +3307,7 @@
     </row>
     <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B75" s="7"/>
-      <c r="C75" s="55"/>
+      <c r="C75" s="54"/>
       <c r="D75" s="25"/>
       <c r="E75" s="19"/>
       <c r="F75" s="21"/>
@@ -3352,7 +3329,7 @@
     </row>
     <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B76" s="7"/>
-      <c r="C76" s="55"/>
+      <c r="C76" s="54"/>
       <c r="D76" s="25"/>
       <c r="E76" s="19"/>
       <c r="F76" s="21"/>
@@ -3374,7 +3351,7 @@
     </row>
     <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B77" s="7"/>
-      <c r="C77" s="55"/>
+      <c r="C77" s="54"/>
       <c r="D77" s="25"/>
       <c r="E77" s="19"/>
       <c r="F77" s="21"/>
@@ -3396,7 +3373,7 @@
     </row>
     <row r="78" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B78" s="7"/>
-      <c r="C78" s="55"/>
+      <c r="C78" s="54"/>
       <c r="D78" s="25"/>
       <c r="E78" s="19"/>
       <c r="F78" s="21"/>
@@ -3418,7 +3395,7 @@
     </row>
     <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="7"/>
-      <c r="C79" s="55"/>
+      <c r="C79" s="54"/>
       <c r="D79" s="25"/>
       <c r="E79" s="19"/>
       <c r="F79" s="21"/>
@@ -3440,7 +3417,7 @@
     </row>
     <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B80" s="7"/>
-      <c r="C80" s="55"/>
+      <c r="C80" s="54"/>
       <c r="D80" s="25"/>
       <c r="E80" s="19"/>
       <c r="F80" s="21"/>
@@ -3462,7 +3439,7 @@
     </row>
     <row r="81" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B81" s="7"/>
-      <c r="C81" s="55"/>
+      <c r="C81" s="54"/>
       <c r="D81" s="25"/>
       <c r="E81" s="19"/>
       <c r="F81" s="21"/>
@@ -3484,7 +3461,7 @@
     </row>
     <row r="82" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B82" s="7"/>
-      <c r="C82" s="55"/>
+      <c r="C82" s="54"/>
       <c r="D82" s="25"/>
       <c r="E82" s="19"/>
       <c r="F82" s="21"/>
@@ -3506,7 +3483,7 @@
     </row>
     <row r="83" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B83" s="7"/>
-      <c r="C83" s="55"/>
+      <c r="C83" s="54"/>
       <c r="D83" s="25"/>
       <c r="E83" s="19"/>
       <c r="F83" s="21"/>
@@ -3528,7 +3505,7 @@
     </row>
     <row r="84" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B84" s="7"/>
-      <c r="C84" s="55"/>
+      <c r="C84" s="54"/>
       <c r="D84" s="25"/>
       <c r="E84" s="19"/>
       <c r="F84" s="21"/>
@@ -3550,7 +3527,7 @@
     </row>
     <row r="85" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B85" s="7"/>
-      <c r="C85" s="55"/>
+      <c r="C85" s="54"/>
       <c r="D85" s="25"/>
       <c r="E85" s="19"/>
       <c r="F85" s="21"/>
@@ -3572,7 +3549,7 @@
     </row>
     <row r="86" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B86" s="7"/>
-      <c r="C86" s="55"/>
+      <c r="C86" s="54"/>
       <c r="D86" s="25"/>
       <c r="E86" s="19"/>
       <c r="F86" s="21"/>
@@ -3594,7 +3571,7 @@
     </row>
     <row r="87" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B87" s="7"/>
-      <c r="C87" s="55"/>
+      <c r="C87" s="54"/>
       <c r="D87" s="25"/>
       <c r="E87" s="19"/>
       <c r="F87" s="21"/>
@@ -3616,7 +3593,7 @@
     </row>
     <row r="88" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B88" s="7"/>
-      <c r="C88" s="55"/>
+      <c r="C88" s="54"/>
       <c r="D88" s="25"/>
       <c r="E88" s="19"/>
       <c r="F88" s="21"/>
@@ -3638,7 +3615,7 @@
     </row>
     <row r="89" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B89" s="7"/>
-      <c r="C89" s="55"/>
+      <c r="C89" s="54"/>
       <c r="D89" s="25"/>
       <c r="E89" s="19"/>
       <c r="F89" s="21"/>
@@ -3660,7 +3637,7 @@
     </row>
     <row r="90" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B90" s="7"/>
-      <c r="C90" s="55"/>
+      <c r="C90" s="54"/>
       <c r="D90" s="25"/>
       <c r="E90" s="19"/>
       <c r="F90" s="21"/>
@@ -3682,7 +3659,7 @@
     </row>
     <row r="91" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B91" s="7"/>
-      <c r="C91" s="55"/>
+      <c r="C91" s="54"/>
       <c r="D91" s="25"/>
       <c r="E91" s="19"/>
       <c r="F91" s="21"/>
@@ -3704,7 +3681,7 @@
     </row>
     <row r="92" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B92" s="7"/>
-      <c r="C92" s="55"/>
+      <c r="C92" s="54"/>
       <c r="D92" s="25"/>
       <c r="E92" s="19"/>
       <c r="F92" s="21"/>
@@ -3726,7 +3703,7 @@
     </row>
     <row r="93" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B93" s="7"/>
-      <c r="C93" s="55"/>
+      <c r="C93" s="54"/>
       <c r="D93" s="25"/>
       <c r="E93" s="19"/>
       <c r="F93" s="21"/>
@@ -3748,7 +3725,7 @@
     </row>
     <row r="94" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B94" s="7"/>
-      <c r="C94" s="55"/>
+      <c r="C94" s="54"/>
       <c r="D94" s="25"/>
       <c r="E94" s="19"/>
       <c r="F94" s="21"/>
@@ -3770,7 +3747,7 @@
     </row>
     <row r="95" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B95" s="7"/>
-      <c r="C95" s="55"/>
+      <c r="C95" s="54"/>
       <c r="D95" s="25"/>
       <c r="E95" s="19"/>
       <c r="F95" s="21"/>
@@ -3792,7 +3769,7 @@
     </row>
     <row r="96" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B96" s="7"/>
-      <c r="C96" s="55"/>
+      <c r="C96" s="54"/>
       <c r="D96" s="25"/>
       <c r="E96" s="19"/>
       <c r="F96" s="21"/>
@@ -3814,7 +3791,7 @@
     </row>
     <row r="97" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B97" s="7"/>
-      <c r="C97" s="55"/>
+      <c r="C97" s="54"/>
       <c r="D97" s="25"/>
       <c r="E97" s="19"/>
       <c r="F97" s="21"/>
@@ -3836,7 +3813,7 @@
     </row>
     <row r="98" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B98" s="7"/>
-      <c r="C98" s="55"/>
+      <c r="C98" s="54"/>
       <c r="D98" s="25"/>
       <c r="E98" s="19"/>
       <c r="F98" s="21"/>
@@ -3858,7 +3835,7 @@
     </row>
     <row r="99" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B99" s="7"/>
-      <c r="C99" s="55"/>
+      <c r="C99" s="54"/>
       <c r="D99" s="25"/>
       <c r="E99" s="19"/>
       <c r="F99" s="21"/>
@@ -3880,7 +3857,7 @@
     </row>
     <row r="100" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B100" s="7"/>
-      <c r="C100" s="55"/>
+      <c r="C100" s="54"/>
       <c r="D100" s="25"/>
       <c r="E100" s="19"/>
       <c r="F100" s="21"/>
@@ -3902,7 +3879,7 @@
     </row>
     <row r="101" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B101" s="7"/>
-      <c r="C101" s="55"/>
+      <c r="C101" s="54"/>
       <c r="D101" s="25"/>
       <c r="E101" s="19"/>
       <c r="F101" s="21"/>
@@ -3924,7 +3901,7 @@
     </row>
     <row r="102" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B102" s="7"/>
-      <c r="C102" s="55"/>
+      <c r="C102" s="54"/>
       <c r="D102" s="25"/>
       <c r="E102" s="19"/>
       <c r="F102" s="21"/>
@@ -3946,7 +3923,7 @@
     </row>
     <row r="103" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B103" s="7"/>
-      <c r="C103" s="55"/>
+      <c r="C103" s="54"/>
       <c r="D103" s="25"/>
       <c r="E103" s="19"/>
       <c r="F103" s="21"/>
@@ -3968,7 +3945,7 @@
     </row>
     <row r="104" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B104" s="7"/>
-      <c r="C104" s="55"/>
+      <c r="C104" s="54"/>
       <c r="D104" s="25"/>
       <c r="E104" s="19"/>
       <c r="F104" s="21"/>
@@ -3990,7 +3967,7 @@
     </row>
     <row r="105" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B105" s="7"/>
-      <c r="C105" s="55"/>
+      <c r="C105" s="54"/>
       <c r="D105" s="25"/>
       <c r="E105" s="19"/>
       <c r="F105" s="21"/>
@@ -4012,7 +3989,7 @@
     </row>
     <row r="106" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B106" s="7"/>
-      <c r="C106" s="55"/>
+      <c r="C106" s="54"/>
       <c r="D106" s="25"/>
       <c r="E106" s="19"/>
       <c r="F106" s="21"/>
@@ -4034,7 +4011,7 @@
     </row>
     <row r="107" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B107" s="7"/>
-      <c r="C107" s="55"/>
+      <c r="C107" s="54"/>
       <c r="D107" s="25"/>
       <c r="E107" s="19"/>
       <c r="F107" s="21"/>
@@ -4056,7 +4033,7 @@
     </row>
     <row r="108" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B108" s="7"/>
-      <c r="C108" s="55"/>
+      <c r="C108" s="54"/>
       <c r="D108" s="25"/>
       <c r="E108" s="19"/>
       <c r="F108" s="21"/>
@@ -4078,7 +4055,7 @@
     </row>
     <row r="109" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B109" s="7"/>
-      <c r="C109" s="55"/>
+      <c r="C109" s="54"/>
       <c r="D109" s="25"/>
       <c r="E109" s="19"/>
       <c r="F109" s="21"/>
@@ -4100,7 +4077,7 @@
     </row>
     <row r="110" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B110" s="7"/>
-      <c r="C110" s="55"/>
+      <c r="C110" s="54"/>
       <c r="D110" s="25"/>
       <c r="E110" s="19"/>
       <c r="F110" s="21"/>
@@ -4122,7 +4099,7 @@
     </row>
     <row r="111" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B111" s="7"/>
-      <c r="C111" s="55"/>
+      <c r="C111" s="54"/>
       <c r="D111" s="25"/>
       <c r="E111" s="19"/>
       <c r="F111" s="21"/>
@@ -4144,7 +4121,7 @@
     </row>
     <row r="112" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B112" s="7"/>
-      <c r="C112" s="55"/>
+      <c r="C112" s="54"/>
       <c r="D112" s="25"/>
       <c r="E112" s="19"/>
       <c r="F112" s="21"/>
@@ -4166,7 +4143,7 @@
     </row>
     <row r="113" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B113" s="7"/>
-      <c r="C113" s="55"/>
+      <c r="C113" s="54"/>
       <c r="D113" s="25"/>
       <c r="E113" s="19"/>
       <c r="F113" s="21"/>
@@ -4188,7 +4165,7 @@
     </row>
     <row r="114" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B114" s="7"/>
-      <c r="C114" s="55"/>
+      <c r="C114" s="54"/>
       <c r="D114" s="25"/>
       <c r="E114" s="19"/>
       <c r="F114" s="21"/>
@@ -4210,7 +4187,7 @@
     </row>
     <row r="115" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B115" s="7"/>
-      <c r="C115" s="55"/>
+      <c r="C115" s="54"/>
       <c r="D115" s="25"/>
       <c r="E115" s="19"/>
       <c r="F115" s="21"/>
@@ -4232,7 +4209,7 @@
     </row>
     <row r="116" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B116" s="7"/>
-      <c r="C116" s="55"/>
+      <c r="C116" s="54"/>
       <c r="D116" s="25"/>
       <c r="E116" s="19"/>
       <c r="F116" s="21"/>
@@ -4254,7 +4231,7 @@
     </row>
     <row r="117" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B117" s="7"/>
-      <c r="C117" s="55"/>
+      <c r="C117" s="54"/>
       <c r="D117" s="25"/>
       <c r="E117" s="19"/>
       <c r="F117" s="21"/>
@@ -4276,7 +4253,7 @@
     </row>
     <row r="118" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B118" s="7"/>
-      <c r="C118" s="55"/>
+      <c r="C118" s="54"/>
       <c r="D118" s="25"/>
       <c r="E118" s="19"/>
       <c r="F118" s="21"/>
@@ -4298,7 +4275,7 @@
     </row>
     <row r="119" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B119" s="7"/>
-      <c r="C119" s="55"/>
+      <c r="C119" s="54"/>
       <c r="D119" s="25"/>
       <c r="E119" s="19"/>
       <c r="F119" s="21"/>
@@ -4320,7 +4297,7 @@
     </row>
     <row r="120" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B120" s="7"/>
-      <c r="C120" s="55"/>
+      <c r="C120" s="54"/>
       <c r="D120" s="25"/>
       <c r="E120" s="19"/>
       <c r="F120" s="21"/>
@@ -4342,7 +4319,7 @@
     </row>
     <row r="121" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B121" s="7"/>
-      <c r="C121" s="55"/>
+      <c r="C121" s="54"/>
       <c r="D121" s="25"/>
       <c r="E121" s="19"/>
       <c r="F121" s="21"/>
@@ -4364,7 +4341,7 @@
     </row>
     <row r="122" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B122" s="7"/>
-      <c r="C122" s="55"/>
+      <c r="C122" s="54"/>
       <c r="D122" s="25"/>
       <c r="E122" s="19"/>
       <c r="F122" s="21"/>
@@ -4386,7 +4363,7 @@
     </row>
     <row r="123" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B123" s="7"/>
-      <c r="C123" s="55"/>
+      <c r="C123" s="54"/>
       <c r="D123" s="25"/>
       <c r="E123" s="19"/>
       <c r="F123" s="21"/>
@@ -4408,7 +4385,7 @@
     </row>
     <row r="124" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B124" s="7"/>
-      <c r="C124" s="55"/>
+      <c r="C124" s="54"/>
       <c r="D124" s="25"/>
       <c r="E124" s="19"/>
       <c r="F124" s="21"/>
@@ -4430,7 +4407,7 @@
     </row>
     <row r="125" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B125" s="7"/>
-      <c r="C125" s="55"/>
+      <c r="C125" s="54"/>
       <c r="D125" s="25"/>
       <c r="E125" s="19"/>
       <c r="F125" s="21"/>
@@ -4452,7 +4429,7 @@
     </row>
     <row r="126" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B126" s="7"/>
-      <c r="C126" s="55"/>
+      <c r="C126" s="54"/>
       <c r="D126" s="25"/>
       <c r="E126" s="19"/>
       <c r="F126" s="21"/>
@@ -4474,7 +4451,7 @@
     </row>
     <row r="127" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B127" s="7"/>
-      <c r="C127" s="55"/>
+      <c r="C127" s="54"/>
       <c r="D127" s="25"/>
       <c r="E127" s="19"/>
       <c r="F127" s="21"/>
@@ -4496,7 +4473,7 @@
     </row>
     <row r="128" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B128" s="7"/>
-      <c r="C128" s="55"/>
+      <c r="C128" s="54"/>
       <c r="D128" s="25"/>
       <c r="E128" s="19"/>
       <c r="F128" s="21"/>
@@ -4518,7 +4495,7 @@
     </row>
     <row r="129" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B129" s="7"/>
-      <c r="C129" s="55"/>
+      <c r="C129" s="54"/>
       <c r="D129" s="25"/>
       <c r="E129" s="19"/>
       <c r="F129" s="21"/>
@@ -4540,7 +4517,7 @@
     </row>
     <row r="130" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B130" s="7"/>
-      <c r="C130" s="55"/>
+      <c r="C130" s="54"/>
       <c r="D130" s="25"/>
       <c r="E130" s="19"/>
       <c r="F130" s="21"/>
@@ -4562,7 +4539,7 @@
     </row>
     <row r="131" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B131" s="7"/>
-      <c r="C131" s="55"/>
+      <c r="C131" s="54"/>
       <c r="D131" s="25"/>
       <c r="E131" s="19"/>
       <c r="F131" s="21"/>
@@ -4584,7 +4561,7 @@
     </row>
     <row r="132" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B132" s="7"/>
-      <c r="C132" s="55"/>
+      <c r="C132" s="54"/>
       <c r="D132" s="25"/>
       <c r="E132" s="19"/>
       <c r="F132" s="21"/>
@@ -4606,7 +4583,7 @@
     </row>
     <row r="133" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B133" s="7"/>
-      <c r="C133" s="55"/>
+      <c r="C133" s="54"/>
       <c r="D133" s="25"/>
       <c r="E133" s="19"/>
       <c r="F133" s="21"/>
@@ -4628,7 +4605,7 @@
     </row>
     <row r="134" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B134" s="7"/>
-      <c r="C134" s="55"/>
+      <c r="C134" s="54"/>
       <c r="D134" s="25"/>
       <c r="E134" s="19"/>
       <c r="F134" s="21"/>
@@ -4650,7 +4627,7 @@
     </row>
     <row r="135" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B135" s="7"/>
-      <c r="C135" s="55"/>
+      <c r="C135" s="54"/>
       <c r="D135" s="25"/>
       <c r="E135" s="19"/>
       <c r="F135" s="21"/>
@@ -4672,7 +4649,7 @@
     </row>
     <row r="136" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B136" s="7"/>
-      <c r="C136" s="55"/>
+      <c r="C136" s="54"/>
       <c r="D136" s="25"/>
       <c r="E136" s="19"/>
       <c r="F136" s="21"/>
@@ -4694,7 +4671,7 @@
     </row>
     <row r="137" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B137" s="7"/>
-      <c r="C137" s="55"/>
+      <c r="C137" s="54"/>
       <c r="D137" s="25"/>
       <c r="E137" s="19"/>
       <c r="F137" s="21"/>
@@ -4716,7 +4693,7 @@
     </row>
     <row r="138" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B138" s="7"/>
-      <c r="C138" s="55"/>
+      <c r="C138" s="54"/>
       <c r="D138" s="25"/>
       <c r="E138" s="19"/>
       <c r="F138" s="21"/>
@@ -4738,7 +4715,7 @@
     </row>
     <row r="139" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B139" s="7"/>
-      <c r="C139" s="55"/>
+      <c r="C139" s="54"/>
       <c r="D139" s="25"/>
       <c r="E139" s="19"/>
       <c r="F139" s="21"/>
@@ -4760,7 +4737,7 @@
     </row>
     <row r="140" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B140" s="7"/>
-      <c r="C140" s="55"/>
+      <c r="C140" s="54"/>
       <c r="D140" s="25"/>
       <c r="E140" s="19"/>
       <c r="F140" s="21"/>
@@ -4782,7 +4759,7 @@
     </row>
     <row r="141" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B141" s="7"/>
-      <c r="C141" s="55"/>
+      <c r="C141" s="54"/>
       <c r="D141" s="25"/>
       <c r="E141" s="19"/>
       <c r="F141" s="21"/>
@@ -4804,7 +4781,7 @@
     </row>
     <row r="142" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B142" s="7"/>
-      <c r="C142" s="55"/>
+      <c r="C142" s="54"/>
       <c r="D142" s="25"/>
       <c r="E142" s="19"/>
       <c r="F142" s="21"/>
@@ -4826,7 +4803,7 @@
     </row>
     <row r="143" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B143" s="7"/>
-      <c r="C143" s="55"/>
+      <c r="C143" s="54"/>
       <c r="D143" s="25"/>
       <c r="E143" s="19"/>
       <c r="F143" s="21"/>
@@ -4848,7 +4825,7 @@
     </row>
     <row r="144" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B144" s="7"/>
-      <c r="C144" s="55"/>
+      <c r="C144" s="54"/>
       <c r="D144" s="25"/>
       <c r="E144" s="19"/>
       <c r="F144" s="21"/>
@@ -4870,7 +4847,7 @@
     </row>
     <row r="145" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B145" s="7"/>
-      <c r="C145" s="55"/>
+      <c r="C145" s="54"/>
       <c r="D145" s="25"/>
       <c r="E145" s="19"/>
       <c r="F145" s="21"/>
@@ -4892,7 +4869,7 @@
     </row>
     <row r="146" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B146" s="7"/>
-      <c r="C146" s="55"/>
+      <c r="C146" s="54"/>
       <c r="D146" s="25"/>
       <c r="E146" s="19"/>
       <c r="F146" s="21"/>
@@ -4914,7 +4891,7 @@
     </row>
     <row r="147" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B147" s="7"/>
-      <c r="C147" s="55"/>
+      <c r="C147" s="54"/>
       <c r="D147" s="25"/>
       <c r="E147" s="19"/>
       <c r="F147" s="21"/>
@@ -4936,7 +4913,7 @@
     </row>
     <row r="148" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B148" s="7"/>
-      <c r="C148" s="55"/>
+      <c r="C148" s="54"/>
       <c r="D148" s="25"/>
       <c r="E148" s="19"/>
       <c r="F148" s="21"/>
@@ -4958,7 +4935,7 @@
     </row>
     <row r="149" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B149" s="7"/>
-      <c r="C149" s="55"/>
+      <c r="C149" s="54"/>
       <c r="D149" s="25"/>
       <c r="E149" s="19"/>
       <c r="F149" s="21"/>
@@ -4980,7 +4957,7 @@
     </row>
     <row r="150" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B150" s="7"/>
-      <c r="C150" s="55"/>
+      <c r="C150" s="54"/>
       <c r="D150" s="25"/>
       <c r="E150" s="19"/>
       <c r="F150" s="21"/>
@@ -5002,7 +4979,7 @@
     </row>
     <row r="151" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B151" s="7"/>
-      <c r="C151" s="55"/>
+      <c r="C151" s="54"/>
       <c r="D151" s="25"/>
       <c r="E151" s="19"/>
       <c r="F151" s="21"/>
@@ -5024,7 +5001,7 @@
     </row>
     <row r="152" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B152" s="7"/>
-      <c r="C152" s="55"/>
+      <c r="C152" s="54"/>
       <c r="D152" s="25"/>
       <c r="E152" s="19"/>
       <c r="F152" s="21"/>
@@ -5046,7 +5023,7 @@
     </row>
     <row r="153" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B153" s="7"/>
-      <c r="C153" s="55"/>
+      <c r="C153" s="54"/>
       <c r="D153" s="25"/>
       <c r="E153" s="19"/>
       <c r="F153" s="21"/>
@@ -5068,7 +5045,7 @@
     </row>
     <row r="154" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B154" s="7"/>
-      <c r="C154" s="55"/>
+      <c r="C154" s="54"/>
       <c r="D154" s="25"/>
       <c r="E154" s="19"/>
       <c r="F154" s="21"/>
@@ -5090,7 +5067,7 @@
     </row>
     <row r="155" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B155" s="7"/>
-      <c r="C155" s="55"/>
+      <c r="C155" s="54"/>
       <c r="D155" s="25"/>
       <c r="E155" s="19"/>
       <c r="F155" s="21"/>
@@ -5112,7 +5089,7 @@
     </row>
     <row r="156" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B156" s="7"/>
-      <c r="C156" s="55"/>
+      <c r="C156" s="54"/>
       <c r="D156" s="25"/>
       <c r="E156" s="19"/>
       <c r="F156" s="21"/>
@@ -5134,7 +5111,7 @@
     </row>
     <row r="157" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B157" s="7"/>
-      <c r="C157" s="55"/>
+      <c r="C157" s="54"/>
       <c r="D157" s="25"/>
       <c r="E157" s="19"/>
       <c r="F157" s="21"/>
@@ -5156,7 +5133,7 @@
     </row>
     <row r="158" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B158" s="7"/>
-      <c r="C158" s="55"/>
+      <c r="C158" s="54"/>
       <c r="D158" s="25"/>
       <c r="E158" s="19"/>
       <c r="F158" s="21"/>
@@ -5178,7 +5155,7 @@
     </row>
     <row r="159" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B159" s="7"/>
-      <c r="C159" s="55"/>
+      <c r="C159" s="54"/>
       <c r="D159" s="25"/>
       <c r="E159" s="19"/>
       <c r="F159" s="21"/>
@@ -5200,7 +5177,7 @@
     </row>
     <row r="160" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B160" s="7"/>
-      <c r="C160" s="55"/>
+      <c r="C160" s="54"/>
       <c r="D160" s="25"/>
       <c r="E160" s="19"/>
       <c r="F160" s="21"/>
@@ -5222,7 +5199,7 @@
     </row>
     <row r="161" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B161" s="7"/>
-      <c r="C161" s="55"/>
+      <c r="C161" s="54"/>
       <c r="D161" s="25"/>
       <c r="E161" s="19"/>
       <c r="F161" s="21"/>
@@ -5244,7 +5221,7 @@
     </row>
     <row r="162" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B162" s="7"/>
-      <c r="C162" s="55"/>
+      <c r="C162" s="54"/>
       <c r="D162" s="25"/>
       <c r="E162" s="19"/>
       <c r="F162" s="21"/>
@@ -5266,7 +5243,7 @@
     </row>
     <row r="163" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B163" s="7"/>
-      <c r="C163" s="55"/>
+      <c r="C163" s="54"/>
       <c r="D163" s="25"/>
       <c r="E163" s="19"/>
       <c r="F163" s="21"/>
@@ -5288,7 +5265,7 @@
     </row>
     <row r="164" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B164" s="7"/>
-      <c r="C164" s="55"/>
+      <c r="C164" s="54"/>
       <c r="D164" s="25"/>
       <c r="E164" s="19"/>
       <c r="F164" s="21"/>
@@ -5310,7 +5287,7 @@
     </row>
     <row r="165" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B165" s="7"/>
-      <c r="C165" s="55"/>
+      <c r="C165" s="54"/>
       <c r="D165" s="25"/>
       <c r="E165" s="19"/>
       <c r="F165" s="21"/>
@@ -5332,7 +5309,7 @@
     </row>
     <row r="166" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B166" s="7"/>
-      <c r="C166" s="55"/>
+      <c r="C166" s="54"/>
       <c r="D166" s="25"/>
       <c r="E166" s="19"/>
       <c r="F166" s="21"/>
@@ -5354,7 +5331,7 @@
     </row>
     <row r="167" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B167" s="7"/>
-      <c r="C167" s="55"/>
+      <c r="C167" s="54"/>
       <c r="D167" s="25"/>
       <c r="E167" s="19"/>
       <c r="F167" s="21"/>
@@ -5376,7 +5353,7 @@
     </row>
     <row r="168" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B168" s="7"/>
-      <c r="C168" s="55"/>
+      <c r="C168" s="54"/>
       <c r="D168" s="25"/>
       <c r="E168" s="19"/>
       <c r="F168" s="21"/>
@@ -5398,7 +5375,7 @@
     </row>
     <row r="169" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B169" s="7"/>
-      <c r="C169" s="55"/>
+      <c r="C169" s="54"/>
       <c r="D169" s="25"/>
       <c r="E169" s="19"/>
       <c r="F169" s="21"/>
@@ -5420,7 +5397,7 @@
     </row>
     <row r="170" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B170" s="7"/>
-      <c r="C170" s="55"/>
+      <c r="C170" s="54"/>
       <c r="D170" s="25"/>
       <c r="E170" s="19"/>
       <c r="F170" s="21"/>
@@ -5442,7 +5419,7 @@
     </row>
     <row r="171" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B171" s="7"/>
-      <c r="C171" s="55"/>
+      <c r="C171" s="54"/>
       <c r="D171" s="25"/>
       <c r="E171" s="19"/>
       <c r="F171" s="21"/>
@@ -5464,7 +5441,7 @@
     </row>
     <row r="172" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B172" s="7"/>
-      <c r="C172" s="55"/>
+      <c r="C172" s="54"/>
       <c r="D172" s="25"/>
       <c r="E172" s="19"/>
       <c r="F172" s="21"/>
@@ -5486,7 +5463,7 @@
     </row>
     <row r="173" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B173" s="7"/>
-      <c r="C173" s="55"/>
+      <c r="C173" s="54"/>
       <c r="D173" s="25"/>
       <c r="E173" s="19"/>
       <c r="F173" s="21"/>
@@ -5508,7 +5485,7 @@
     </row>
     <row r="174" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B174" s="7"/>
-      <c r="C174" s="55"/>
+      <c r="C174" s="54"/>
       <c r="D174" s="25"/>
       <c r="E174" s="19"/>
       <c r="F174" s="21"/>
@@ -5530,7 +5507,7 @@
     </row>
     <row r="175" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B175" s="7"/>
-      <c r="C175" s="55"/>
+      <c r="C175" s="54"/>
       <c r="D175" s="25"/>
       <c r="E175" s="19"/>
       <c r="F175" s="21"/>
@@ -5552,7 +5529,7 @@
     </row>
     <row r="176" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B176" s="7"/>
-      <c r="C176" s="55"/>
+      <c r="C176" s="54"/>
       <c r="D176" s="25"/>
       <c r="E176" s="19"/>
       <c r="F176" s="21"/>
@@ -5574,7 +5551,7 @@
     </row>
     <row r="177" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B177" s="7"/>
-      <c r="C177" s="55"/>
+      <c r="C177" s="54"/>
       <c r="D177" s="25"/>
       <c r="E177" s="19"/>
       <c r="F177" s="21"/>
@@ -5596,7 +5573,7 @@
     </row>
     <row r="178" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B178" s="7"/>
-      <c r="C178" s="55"/>
+      <c r="C178" s="54"/>
       <c r="D178" s="25"/>
       <c r="E178" s="19"/>
       <c r="F178" s="21"/>
@@ -5618,7 +5595,7 @@
     </row>
     <row r="179" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B179" s="7"/>
-      <c r="C179" s="55"/>
+      <c r="C179" s="54"/>
       <c r="D179" s="25"/>
       <c r="E179" s="19"/>
       <c r="F179" s="21"/>
@@ -5640,7 +5617,7 @@
     </row>
     <row r="180" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B180" s="7"/>
-      <c r="C180" s="55"/>
+      <c r="C180" s="54"/>
       <c r="D180" s="25"/>
       <c r="E180" s="19"/>
       <c r="F180" s="21"/>
@@ -5662,7 +5639,7 @@
     </row>
     <row r="181" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B181" s="7"/>
-      <c r="C181" s="55"/>
+      <c r="C181" s="54"/>
       <c r="D181" s="25"/>
       <c r="E181" s="19"/>
       <c r="F181" s="21"/>
@@ -5684,7 +5661,7 @@
     </row>
     <row r="182" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B182" s="7"/>
-      <c r="C182" s="55"/>
+      <c r="C182" s="54"/>
       <c r="D182" s="25"/>
       <c r="E182" s="19"/>
       <c r="F182" s="21"/>
@@ -5706,7 +5683,7 @@
     </row>
     <row r="183" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B183" s="7"/>
-      <c r="C183" s="55"/>
+      <c r="C183" s="54"/>
       <c r="D183" s="25"/>
       <c r="E183" s="19"/>
       <c r="F183" s="21"/>
@@ -5728,7 +5705,7 @@
     </row>
     <row r="184" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B184" s="7"/>
-      <c r="C184" s="55"/>
+      <c r="C184" s="54"/>
       <c r="D184" s="25"/>
       <c r="E184" s="19"/>
       <c r="F184" s="21"/>
@@ -5750,7 +5727,7 @@
     </row>
     <row r="185" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B185" s="7"/>
-      <c r="C185" s="55"/>
+      <c r="C185" s="54"/>
       <c r="D185" s="25"/>
       <c r="E185" s="19"/>
       <c r="F185" s="21"/>
@@ -5772,7 +5749,7 @@
     </row>
     <row r="186" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B186" s="7"/>
-      <c r="C186" s="55"/>
+      <c r="C186" s="54"/>
       <c r="D186" s="25"/>
       <c r="E186" s="19"/>
       <c r="F186" s="21"/>
@@ -5794,7 +5771,7 @@
     </row>
     <row r="187" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B187" s="7"/>
-      <c r="C187" s="55"/>
+      <c r="C187" s="54"/>
       <c r="D187" s="25"/>
       <c r="E187" s="19"/>
       <c r="F187" s="21"/>
@@ -5816,7 +5793,7 @@
     </row>
     <row r="188" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B188" s="7"/>
-      <c r="C188" s="55"/>
+      <c r="C188" s="54"/>
       <c r="D188" s="25"/>
       <c r="E188" s="19"/>
       <c r="F188" s="21"/>
@@ -5838,7 +5815,7 @@
     </row>
     <row r="189" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B189" s="7"/>
-      <c r="C189" s="55"/>
+      <c r="C189" s="54"/>
       <c r="D189" s="25"/>
       <c r="E189" s="19"/>
       <c r="F189" s="21"/>
@@ -5860,7 +5837,7 @@
     </row>
     <row r="190" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B190" s="7"/>
-      <c r="C190" s="55"/>
+      <c r="C190" s="54"/>
       <c r="D190" s="25"/>
       <c r="E190" s="19"/>
       <c r="F190" s="21"/>
@@ -5882,7 +5859,7 @@
     </row>
     <row r="191" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B191" s="7"/>
-      <c r="C191" s="55"/>
+      <c r="C191" s="54"/>
       <c r="D191" s="25"/>
       <c r="E191" s="19"/>
       <c r="F191" s="21"/>
@@ -5904,7 +5881,7 @@
     </row>
     <row r="192" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B192" s="7"/>
-      <c r="C192" s="55"/>
+      <c r="C192" s="54"/>
       <c r="D192" s="25"/>
       <c r="E192" s="19"/>
       <c r="F192" s="21"/>
@@ -5926,7 +5903,7 @@
     </row>
     <row r="193" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B193" s="7"/>
-      <c r="C193" s="55"/>
+      <c r="C193" s="54"/>
       <c r="D193" s="25"/>
       <c r="E193" s="19"/>
       <c r="F193" s="21"/>
@@ -5948,7 +5925,7 @@
     </row>
     <row r="194" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B194" s="7"/>
-      <c r="C194" s="55"/>
+      <c r="C194" s="54"/>
       <c r="D194" s="25"/>
       <c r="E194" s="19"/>
       <c r="F194" s="21"/>
@@ -5970,7 +5947,7 @@
     </row>
     <row r="195" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B195" s="7"/>
-      <c r="C195" s="55"/>
+      <c r="C195" s="54"/>
       <c r="D195" s="25"/>
       <c r="E195" s="19"/>
       <c r="F195" s="21"/>
@@ -5992,7 +5969,7 @@
     </row>
     <row r="196" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B196" s="7"/>
-      <c r="C196" s="55"/>
+      <c r="C196" s="54"/>
       <c r="D196" s="25"/>
       <c r="E196" s="19"/>
       <c r="F196" s="21"/>
@@ -6014,7 +5991,7 @@
     </row>
     <row r="197" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B197" s="7"/>
-      <c r="C197" s="55"/>
+      <c r="C197" s="54"/>
       <c r="D197" s="25"/>
       <c r="E197" s="19"/>
       <c r="F197" s="21"/>
@@ -6036,7 +6013,7 @@
     </row>
     <row r="198" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B198" s="7"/>
-      <c r="C198" s="55"/>
+      <c r="C198" s="54"/>
       <c r="D198" s="25"/>
       <c r="E198" s="19"/>
       <c r="F198" s="21"/>
@@ -6058,7 +6035,7 @@
     </row>
     <row r="199" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B199" s="7"/>
-      <c r="C199" s="55"/>
+      <c r="C199" s="54"/>
       <c r="D199" s="25"/>
       <c r="E199" s="19"/>
       <c r="F199" s="21"/>
@@ -6080,7 +6057,7 @@
     </row>
     <row r="200" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B200" s="7"/>
-      <c r="C200" s="55"/>
+      <c r="C200" s="54"/>
       <c r="D200" s="25"/>
       <c r="E200" s="19"/>
       <c r="F200" s="21"/>
@@ -6102,7 +6079,7 @@
     </row>
     <row r="201" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B201" s="7"/>
-      <c r="C201" s="55"/>
+      <c r="C201" s="54"/>
       <c r="D201" s="25"/>
       <c r="E201" s="19"/>
       <c r="F201" s="21"/>
@@ -6124,7 +6101,7 @@
     </row>
     <row r="202" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B202" s="7"/>
-      <c r="C202" s="55"/>
+      <c r="C202" s="54"/>
       <c r="D202" s="25"/>
       <c r="E202" s="19"/>
       <c r="F202" s="21"/>
@@ -6144,68 +6121,45 @@
       <c r="T202" s="2"/>
       <c r="U202" s="2"/>
     </row>
-    <row r="203" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B203" s="7"/>
-      <c r="C203" s="55"/>
-      <c r="D203" s="25"/>
-      <c r="E203" s="19"/>
-      <c r="F203" s="21"/>
-      <c r="G203" s="5"/>
-      <c r="H203" s="2"/>
-      <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
-      <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
-      <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
-      <c r="O203" s="2"/>
-      <c r="P203" s="2"/>
-      <c r="Q203" s="2"/>
-      <c r="R203" s="2"/>
-      <c r="S203" s="2"/>
-      <c r="T203" s="2"/>
-      <c r="U203" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B15:B19"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="A25:A26"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="B10:B14"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G24" r:id="rId1" xr:uid="{B31A274E-F07C-44B6-9196-D872B832FF89}"/>
+    <hyperlink ref="G23" r:id="rId1" xr:uid="{B31A274E-F07C-44B6-9196-D872B832FF89}"/>
     <hyperlink ref="G15" r:id="rId2" xr:uid="{F88C2772-E3D2-4978-8756-B096FCF63618}"/>
     <hyperlink ref="G4" r:id="rId3" xr:uid="{8A750D1A-8E1F-4B72-8BA2-E6F9CF7926F8}"/>
     <hyperlink ref="G3" r:id="rId4" xr:uid="{E4C6613E-D951-48EB-8826-128A83D99A92}"/>
     <hyperlink ref="G5" r:id="rId5" xr:uid="{42D7682B-CCBD-4759-8914-EFA32EF05545}"/>
     <hyperlink ref="G7" r:id="rId6" xr:uid="{C941E12C-1424-44F5-8F24-6A3993B772ED}"/>
     <hyperlink ref="G10" r:id="rId7" xr:uid="{75F39C92-1A36-44BA-BF0F-0BB87A9543EA}"/>
-    <hyperlink ref="G23" r:id="rId8" xr:uid="{7139B08F-5529-47F1-94E0-3C155EF83976}"/>
+    <hyperlink ref="G22" r:id="rId8" xr:uid="{7139B08F-5529-47F1-94E0-3C155EF83976}"/>
     <hyperlink ref="G16" r:id="rId9" xr:uid="{555D7DD7-FFEB-4C02-88A0-3BA164A098F8}"/>
     <hyperlink ref="G18" r:id="rId10" xr:uid="{7ADD23F4-EEF3-4BEF-8018-8CAD6760A4ED}"/>
-    <hyperlink ref="G25" r:id="rId11" location="sc3.3.2" xr:uid="{2C827E1F-1051-44EC-950F-80370F60BA6F}"/>
-    <hyperlink ref="G28" r:id="rId12" location="contrast-minimum" xr:uid="{97149AD8-AC7D-4626-884D-7B0A9439CB46}"/>
-    <hyperlink ref="G19" r:id="rId13" xr:uid="{C4590C16-0951-4CBB-9FDB-E73D1E1D1A9E}"/>
-    <hyperlink ref="G21" r:id="rId14" xr:uid="{5E3EBC16-6346-4B83-BFCF-69A41FBC2CF8}"/>
-    <hyperlink ref="G17" r:id="rId15" xr:uid="{8AF63486-1C1F-42C4-A1B2-CF8F9AADD15A}"/>
-    <hyperlink ref="G20" r:id="rId16" xr:uid="{184AD99F-4447-422B-B0AF-006057B12A24}"/>
+    <hyperlink ref="G24" r:id="rId11" location="sc3.3.2" xr:uid="{2C827E1F-1051-44EC-950F-80370F60BA6F}"/>
+    <hyperlink ref="G27" r:id="rId12" location="contrast-minimum" xr:uid="{97149AD8-AC7D-4626-884D-7B0A9439CB46}"/>
+    <hyperlink ref="G20" r:id="rId13" xr:uid="{5E3EBC16-6346-4B83-BFCF-69A41FBC2CF8}"/>
+    <hyperlink ref="G17" r:id="rId14" xr:uid="{8AF63486-1C1F-42C4-A1B2-CF8F9AADD15A}"/>
+    <hyperlink ref="G19" r:id="rId15" xr:uid="{184AD99F-4447-422B-B0AF-006057B12A24}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId17"/>
+  <pageSetup orientation="landscape" r:id="rId16"/>
 </worksheet>
 </file>